--- a/LV/RPDM v2/RPDM Circuits.xlsx
+++ b/LV/RPDM v2/RPDM Circuits.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshsmedley/Documents/GitHub/UOW-Motorsport-Team/KiCad/LV/RPDM v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C3BE98-F78D-B244-8F27-18946E88FDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76941586-9C5D-974E-9A18-D725B816F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{158D7BBC-9F80-B440-B72D-DA4B22835E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$L$3</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$L$4:$L$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$M$3</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$M$4:$M$7</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$N$3</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$N$4:$N$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>12v</t>
   </si>
@@ -118,6 +126,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>PIN</t>
   </si>
 </sst>
 </file>
@@ -147,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,28 +184,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998EF823-97E5-6D41-9F1B-152E6416E839}">
-  <dimension ref="B1:F28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,23 +555,29 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -558,11 +590,14 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -575,9 +610,12 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -590,11 +628,14 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -607,11 +648,14 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -624,11 +668,14 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -641,11 +688,14 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -658,11 +708,14 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -675,11 +728,14 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -692,11 +748,14 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -709,11 +768,14 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -726,11 +788,14 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -743,11 +808,14 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -760,11 +828,14 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -777,115 +848,136 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="8" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="5"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:B36">

--- a/LV/RPDM v2/RPDM Circuits.xlsx
+++ b/LV/RPDM v2/RPDM Circuits.xlsx
@@ -8,22 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshsmedley/Documents/GitHub/UOW-Motorsport-Team/KiCad/LV/RPDM v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76941586-9C5D-974E-9A18-D725B816F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A485325-82B1-4C44-A1B1-0A62115EE013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{158D7BBC-9F80-B440-B72D-DA4B22835E50}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{158D7BBC-9F80-B440-B72D-DA4B22835E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$L$3</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$L$4:$L$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$M$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$M$4:$M$7</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$N$3</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$N$4:$N$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">[1]Sheet1!$E$3:$E$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Sheet1!$F$3:$F$13</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">[1]Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">[1]Sheet1!$E$3:$E$13</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">[1]Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">[1]Sheet1!$F$3:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,30 +202,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +254,188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Resistance (kΩ)</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Period (ms)</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Resistance (kΩ)</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Frequency (Hz)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>100</v>
+          </cell>
+          <cell r="C3">
+            <v>199</v>
+          </cell>
+          <cell r="E3">
+            <v>100</v>
+          </cell>
+          <cell r="F3">
+            <v>5.0251256281407031</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>110</v>
+          </cell>
+          <cell r="C4">
+            <v>218</v>
+          </cell>
+          <cell r="E4">
+            <v>110</v>
+          </cell>
+          <cell r="F4">
+            <v>4.5871559633027523</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>120</v>
+          </cell>
+          <cell r="C5">
+            <v>238</v>
+          </cell>
+          <cell r="E5">
+            <v>120</v>
+          </cell>
+          <cell r="F5">
+            <v>4.2016806722689068</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>130</v>
+          </cell>
+          <cell r="C6">
+            <v>258</v>
+          </cell>
+          <cell r="E6">
+            <v>130</v>
+          </cell>
+          <cell r="F6">
+            <v>3.8759689922480618</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>140</v>
+          </cell>
+          <cell r="C7">
+            <v>278</v>
+          </cell>
+          <cell r="E7">
+            <v>140</v>
+          </cell>
+          <cell r="F7">
+            <v>3.5971223021582732</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>150</v>
+          </cell>
+          <cell r="C8">
+            <v>298</v>
+          </cell>
+          <cell r="E8">
+            <v>150</v>
+          </cell>
+          <cell r="F8">
+            <v>3.3557046979865772</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>160</v>
+          </cell>
+          <cell r="C9">
+            <v>318</v>
+          </cell>
+          <cell r="E9">
+            <v>160</v>
+          </cell>
+          <cell r="F9">
+            <v>3.1446540880503142</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>170</v>
+          </cell>
+          <cell r="C10">
+            <v>338</v>
+          </cell>
+          <cell r="E10">
+            <v>170</v>
+          </cell>
+          <cell r="F10">
+            <v>2.9585798816568047</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>180</v>
+          </cell>
+          <cell r="C11">
+            <v>358</v>
+          </cell>
+          <cell r="E11">
+            <v>180</v>
+          </cell>
+          <cell r="F11">
+            <v>2.7932960893854748</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>190</v>
+          </cell>
+          <cell r="C12">
+            <v>378</v>
+          </cell>
+          <cell r="E12">
+            <v>190</v>
+          </cell>
+          <cell r="F12">
+            <v>2.6455026455026456</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>200</v>
+          </cell>
+          <cell r="C13">
+            <v>397</v>
+          </cell>
+          <cell r="E13">
+            <v>200</v>
+          </cell>
+          <cell r="F13">
+            <v>2.5188916876574305</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,458 +735,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998EF823-97E5-6D41-9F1B-152E6416E839}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
       <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
       <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
       <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
       <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
       <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
       <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
       <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
       <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
       <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
       <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="6" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:B36">
     <sortCondition ref="B18:B36"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
